--- a/Plano de Testes_V1.xlsx
+++ b/Plano de Testes_V1.xlsx
@@ -52309,7 +52309,7 @@
   <dimension ref="A2:AMK55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
